--- a/data201.xlsx
+++ b/data201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helrhila\Documents\SAE201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A134C-8803-45CE-B866-628C7EE82ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F09431D-D550-4358-A9C8-9CCF656ABAD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adherant" sheetId="1" r:id="rId1"/>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,7 +7252,7 @@
   <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16512,8 +16512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data201.xlsx
+++ b/data201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helrhila\Documents\SAE201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F09431D-D550-4358-A9C8-9CCF656ABAD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118AC6CA-F672-474B-908B-411FE254DAD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,9 +1131,6 @@
     <t>06 61 55 22 49</t>
   </si>
   <si>
-    <t>05 61 42 55 24/ 07 61 25 78 37</t>
-  </si>
-  <si>
     <t>06 60 88 75 68</t>
   </si>
   <si>
@@ -1273,6 +1270,9 @@
   </si>
   <si>
     <t>Oui</t>
+  </si>
+  <si>
+    <t>05 61 42 55 24</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6883,7 +6883,7 @@
         <v>232</v>
       </c>
       <c r="J168" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7143,7 +7143,7 @@
         <v>234</v>
       </c>
       <c r="J177" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
         <v>198</v>
       </c>
       <c r="J178" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
         <v>229</v>
       </c>
       <c r="J179" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
         <v>233</v>
       </c>
       <c r="J180" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7270,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7278,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7294,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7302,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7310,7 +7310,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7318,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7326,7 +7326,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7334,7 +7334,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7342,7 +7342,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7358,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7366,7 +7366,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7374,7 +7374,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7390,7 +7390,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7398,7 +7398,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7430,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7438,7 +7438,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7454,7 +7454,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7462,7 +7462,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7470,7 +7470,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7478,7 +7478,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7486,7 +7486,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7494,7 +7494,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7502,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7518,7 +7518,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7534,7 +7534,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7542,7 +7542,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7550,7 +7550,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7566,7 +7566,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7574,7 +7574,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7582,7 +7582,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7590,7 +7590,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7598,7 +7598,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7606,7 +7606,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7614,7 +7614,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7622,7 +7622,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7630,7 +7630,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7638,7 +7638,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7646,7 +7646,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7654,7 +7654,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7662,7 +7662,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7670,7 +7670,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7678,7 +7678,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7686,7 +7686,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7694,7 +7694,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7702,7 +7702,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7710,7 +7710,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -7734,7 +7734,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7742,7 +7742,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -7750,7 +7750,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -7758,7 +7758,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -7774,7 +7774,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -7782,7 +7782,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7790,7 +7790,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -7798,7 +7798,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -7806,7 +7806,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -7822,7 +7822,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7830,7 +7830,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -7838,7 +7838,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -7846,7 +7846,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -7854,7 +7854,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7862,7 +7862,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7870,7 +7870,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -7878,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -7886,7 +7886,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -7894,7 +7894,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7902,7 +7902,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -7910,7 +7910,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7918,7 +7918,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,7 +7926,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -7934,7 +7934,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7950,7 +7950,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -7966,7 +7966,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -7974,7 +7974,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -7982,7 +7982,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7990,7 +7990,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7998,7 +7998,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8006,7 +8006,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8014,7 +8014,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8022,7 +8022,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8030,7 +8030,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8038,7 +8038,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8046,7 +8046,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8062,7 +8062,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8070,7 +8070,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8078,7 +8078,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8094,7 +8094,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8102,7 +8102,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8110,7 +8110,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8118,7 +8118,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8134,7 +8134,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8142,7 +8142,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8158,7 +8158,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8166,7 +8166,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8174,7 +8174,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8190,7 +8190,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -8198,7 +8198,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8214,7 +8214,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8222,7 +8222,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8238,7 +8238,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8246,7 +8246,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8254,7 +8254,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8262,7 +8262,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -8270,7 +8270,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8278,7 +8278,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8286,7 +8286,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8294,7 +8294,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8302,7 +8302,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -8310,7 +8310,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8318,7 +8318,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8326,7 +8326,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8334,7 +8334,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8342,7 +8342,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8350,7 +8350,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -8358,7 +8358,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -8366,7 +8366,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +8374,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +8382,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8390,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -8398,7 +8398,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -8406,7 +8406,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -8414,7 +8414,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,7 +8422,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -8438,7 +8438,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -8446,7 +8446,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -8454,7 +8454,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +8462,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -8470,7 +8470,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -8478,7 +8478,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -8494,7 +8494,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -8502,7 +8502,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -8510,7 +8510,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -8518,7 +8518,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -8526,7 +8526,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -8534,7 +8534,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -8542,7 +8542,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -8550,7 +8550,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -8558,7 +8558,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -8566,7 +8566,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -8574,7 +8574,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -8582,7 +8582,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -8590,7 +8590,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -8598,7 +8598,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -8606,7 +8606,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -8614,7 +8614,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -8622,7 +8622,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -8630,7 +8630,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -8638,7 +8638,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -8646,7 +8646,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -8654,7 +8654,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -8662,7 +8662,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -8670,7 +8670,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -8678,7 +8678,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -8686,7 +8686,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -8694,7 +8694,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8720,16 +8720,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9919,7 +9919,7 @@
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9932,16 +9932,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11132,16 +11132,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11155,7 +11155,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11169,7 +11169,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11231,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11269,7 +11269,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11283,7 +11283,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11295,7 +11295,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -11313,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -11397,7 +11397,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11411,7 +11411,7 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -11425,7 +11425,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11439,7 +11439,7 @@
         <v>530</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -12335,16 +12335,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12372,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12404,7 +12404,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12418,7 +12418,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12494,7 +12494,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12604,7 +12604,7 @@
         <v>530</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -12632,7 +12632,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -12646,7 +12646,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -12660,7 +12660,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -12674,7 +12674,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -12688,7 +12688,7 @@
         <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -12702,7 +12702,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13572,16 +13572,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13595,7 +13595,7 @@
         <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13609,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13641,7 +13641,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13655,7 +13655,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13693,7 +13693,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13719,7 +13719,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13731,7 +13731,7 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13761,7 +13761,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13773,7 +13773,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -13857,7 +13857,7 @@
         <v>530</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13883,7 +13883,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13897,7 +13897,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13911,7 +13911,7 @@
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13925,7 +13925,7 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13945,7 +13945,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13965,7 +13965,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13979,7 +13979,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -14007,7 +14007,7 @@
         <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -14021,7 +14021,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -14035,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
         <v>0.5</v>
       </c>
       <c r="E52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -14077,7 +14077,7 @@
         <v>1.5</v>
       </c>
       <c r="E53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -14091,7 +14091,7 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -14105,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -14119,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -14133,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -14161,7 +14161,7 @@
         <v>400</v>
       </c>
       <c r="E59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -14175,7 +14175,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -14189,7 +14189,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -14203,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -14937,16 +14937,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14960,7 +14960,7 @@
         <v>950</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14974,7 +14974,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15006,7 +15006,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -15020,7 +15020,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15064,7 +15064,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15084,7 +15084,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15130,7 +15130,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15144,7 +15144,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15194,7 +15194,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -15208,7 +15208,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -15246,7 +15246,7 @@
         <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -15260,7 +15260,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -15280,7 +15280,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -15294,7 +15294,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -15308,7 +15308,7 @@
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -15322,7 +15322,7 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15360,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -15374,7 +15374,7 @@
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -15388,7 +15388,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15408,7 +15408,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15422,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -15454,7 +15454,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -15480,7 +15480,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -15506,7 +15506,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -15532,7 +15532,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -15546,7 +15546,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -15560,7 +15560,7 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -15574,7 +15574,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -15588,7 +15588,7 @@
         <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -15602,7 +15602,7 @@
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -15630,7 +15630,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -15644,7 +15644,7 @@
         <v>0.5</v>
       </c>
       <c r="E71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -15658,7 +15658,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -15672,7 +15672,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -15686,7 +15686,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -15700,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -15712,7 +15712,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -15726,7 +15726,7 @@
         <v>40</v>
       </c>
       <c r="E77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -15772,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -15786,7 +15786,7 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -15828,7 +15828,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -15842,7 +15842,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -15856,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -15870,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -15884,7 +15884,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -15898,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -15912,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -15940,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -15954,7 +15954,7 @@
         <v>0.5</v>
       </c>
       <c r="E95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -15968,7 +15968,7 @@
         <v>0.5</v>
       </c>
       <c r="E96" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -15982,7 +15982,7 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -15996,7 +15996,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="B144" s="1"/>
       <c r="E144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="B145" s="1"/>
       <c r="E145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="B148" s="1"/>
       <c r="E148" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -16482,7 +16482,7 @@
       </c>
       <c r="B177" s="1"/>
       <c r="E177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -16526,16 +16526,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16546,10 +16546,10 @@
         <v>44387</v>
       </c>
       <c r="C2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16560,10 +16560,10 @@
         <v>44543</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16592,10 +16592,10 @@
         <v>44507</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -16606,10 +16606,10 @@
         <v>44507</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16650,10 +16650,10 @@
         <v>44561</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16670,10 +16670,10 @@
         <v>44535</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -16684,10 +16684,10 @@
         <v>44535</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16722,10 +16722,10 @@
         <v>44402</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16772,10 +16772,10 @@
         <v>44561</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -16786,10 +16786,10 @@
         <v>44561</v>
       </c>
       <c r="C30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -16824,10 +16824,10 @@
         <v>44536</v>
       </c>
       <c r="C35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -16850,10 +16850,10 @@
         <v>44380</v>
       </c>
       <c r="C38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -16864,10 +16864,10 @@
         <v>44558</v>
       </c>
       <c r="C39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -16878,10 +16878,10 @@
         <v>44380</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -16904,10 +16904,10 @@
         <v>44296</v>
       </c>
       <c r="C43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -16930,10 +16930,10 @@
         <v>44551</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -16944,10 +16944,10 @@
         <v>44544</v>
       </c>
       <c r="C47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -16964,10 +16964,10 @@
         <v>44540</v>
       </c>
       <c r="C49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -16978,10 +16978,10 @@
         <v>44263</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -17028,10 +17028,10 @@
         <v>44380</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -17054,10 +17054,10 @@
         <v>44536</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -17074,10 +17074,10 @@
         <v>44544</v>
       </c>
       <c r="C62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -17118,10 +17118,10 @@
         <v>44464</v>
       </c>
       <c r="C68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -17156,10 +17156,10 @@
         <v>44561</v>
       </c>
       <c r="C73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -17212,10 +17212,10 @@
         <v>44380</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -17226,10 +17226,10 @@
         <v>44380</v>
       </c>
       <c r="C82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -17240,10 +17240,10 @@
         <v>44380</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -17278,10 +17278,10 @@
         <v>44394</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -17292,10 +17292,10 @@
         <v>44394</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -17306,10 +17306,10 @@
         <v>44395</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -17320,10 +17320,10 @@
         <v>44394</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -17334,10 +17334,10 @@
         <v>44394</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -17348,10 +17348,10 @@
         <v>44394</v>
       </c>
       <c r="C93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -17370,10 +17370,10 @@
         <v>44426</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -17384,10 +17384,10 @@
         <v>44426</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -17398,10 +17398,10 @@
         <v>44561</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -17412,10 +17412,10 @@
         <v>44557</v>
       </c>
       <c r="C98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -17426,10 +17426,10 @@
         <v>44217</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -17440,10 +17440,10 @@
         <v>44218</v>
       </c>
       <c r="C100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -17454,10 +17454,10 @@
         <v>44268</v>
       </c>
       <c r="C101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -17468,10 +17468,10 @@
         <v>44249</v>
       </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -17480,10 +17480,10 @@
       </c>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -17494,10 +17494,10 @@
         <v>44218</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -17508,10 +17508,10 @@
         <v>44218</v>
       </c>
       <c r="C105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -17522,10 +17522,10 @@
         <v>44286</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -17557,10 +17557,10 @@
         <v>44202</v>
       </c>
       <c r="C110" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E110" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B113" s="1"/>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -17592,10 +17592,10 @@
         <v>44426</v>
       </c>
       <c r="C114" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E114" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -17606,10 +17606,10 @@
         <v>44439</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E115" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -17620,10 +17620,10 @@
         <v>44431</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -17634,10 +17634,10 @@
         <v>44464</v>
       </c>
       <c r="C117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -17648,10 +17648,10 @@
         <v>44464</v>
       </c>
       <c r="C118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -17662,10 +17662,10 @@
         <v>44464</v>
       </c>
       <c r="C119" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -17676,10 +17676,10 @@
         <v>44464</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E120" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -17690,10 +17690,10 @@
         <v>44464</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -17704,10 +17704,10 @@
         <v>44464</v>
       </c>
       <c r="C122" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -17718,10 +17718,10 @@
         <v>44464</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -17732,10 +17732,10 @@
         <v>44464</v>
       </c>
       <c r="C124" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -17746,10 +17746,10 @@
         <v>44464</v>
       </c>
       <c r="C125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -17760,10 +17760,10 @@
         <v>44464</v>
       </c>
       <c r="C126" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E126" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -17774,10 +17774,10 @@
         <v>44464</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E127" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -17788,10 +17788,10 @@
         <v>44464</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -17802,10 +17802,10 @@
         <v>44464</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -17816,10 +17816,10 @@
         <v>44500</v>
       </c>
       <c r="C130" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -17830,10 +17830,10 @@
         <v>44500</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -17850,10 +17850,10 @@
         <v>44500</v>
       </c>
       <c r="C133" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E133" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -17864,10 +17864,10 @@
         <v>44500</v>
       </c>
       <c r="C134" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E134" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -17878,10 +17878,10 @@
         <v>44500</v>
       </c>
       <c r="C135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E135" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -17892,10 +17892,10 @@
         <v>44500</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E136" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -17906,10 +17906,10 @@
         <v>44500</v>
       </c>
       <c r="C137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -17920,10 +17920,10 @@
         <v>44500</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E138" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -17934,10 +17934,10 @@
         <v>44500</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -17948,10 +17948,10 @@
         <v>44500</v>
       </c>
       <c r="C140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E140" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -17962,10 +17962,10 @@
         <v>44470</v>
       </c>
       <c r="C141" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E141" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -17976,10 +17976,10 @@
         <v>44470</v>
       </c>
       <c r="C142" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E142" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -17990,10 +17990,10 @@
         <v>44508</v>
       </c>
       <c r="C143" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E143" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -18004,10 +18004,10 @@
         <v>44522</v>
       </c>
       <c r="C144" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -18018,10 +18018,10 @@
         <v>44522</v>
       </c>
       <c r="C145" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -18032,10 +18032,10 @@
         <v>44520</v>
       </c>
       <c r="C146" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E146" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -18046,10 +18046,10 @@
         <v>44520</v>
       </c>
       <c r="C147" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E147" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -18060,10 +18060,10 @@
         <v>44520</v>
       </c>
       <c r="C148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E148" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -18074,10 +18074,10 @@
         <v>44520</v>
       </c>
       <c r="C149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E149" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -18088,10 +18088,10 @@
         <v>44520</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -18102,10 +18102,10 @@
         <v>44531</v>
       </c>
       <c r="C151" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E151" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -18116,10 +18116,10 @@
         <v>44380</v>
       </c>
       <c r="C152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -18130,10 +18130,10 @@
         <v>44380</v>
       </c>
       <c r="C153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E153" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -18144,10 +18144,10 @@
         <v>44380</v>
       </c>
       <c r="C154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E154" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -18158,10 +18158,10 @@
         <v>44380</v>
       </c>
       <c r="C155" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -18172,10 +18172,10 @@
         <v>44380</v>
       </c>
       <c r="C156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E156" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -18186,10 +18186,10 @@
         <v>44380</v>
       </c>
       <c r="C157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E157" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -18200,10 +18200,10 @@
         <v>44380</v>
       </c>
       <c r="C158" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E158" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -18214,10 +18214,10 @@
         <v>44380</v>
       </c>
       <c r="C159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -18228,10 +18228,10 @@
         <v>44380</v>
       </c>
       <c r="C160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -18242,10 +18242,10 @@
         <v>44380</v>
       </c>
       <c r="C161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E161" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -18256,10 +18256,10 @@
         <v>44380</v>
       </c>
       <c r="C162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -18270,10 +18270,10 @@
         <v>44380</v>
       </c>
       <c r="C163" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E163" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -18284,10 +18284,10 @@
         <v>44380</v>
       </c>
       <c r="C164" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -18298,10 +18298,10 @@
         <v>44380</v>
       </c>
       <c r="C165" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E165" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -18312,10 +18312,10 @@
         <v>44527</v>
       </c>
       <c r="C166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E166" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -18326,10 +18326,10 @@
         <v>44527</v>
       </c>
       <c r="C167" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E167" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -18340,10 +18340,10 @@
         <v>44527</v>
       </c>
       <c r="C168" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E168" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -18354,10 +18354,10 @@
         <v>44535</v>
       </c>
       <c r="C169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -18368,10 +18368,10 @@
         <v>44535</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E170" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -18382,10 +18382,10 @@
         <v>44531</v>
       </c>
       <c r="C171" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E171" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -18396,10 +18396,10 @@
         <v>44530</v>
       </c>
       <c r="C172" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E172" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -18410,10 +18410,10 @@
         <v>44439</v>
       </c>
       <c r="C173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E173" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -18424,10 +18424,10 @@
         <v>44475</v>
       </c>
       <c r="C174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E174" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -18438,10 +18438,10 @@
         <v>44544</v>
       </c>
       <c r="C175" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E175" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -18452,10 +18452,10 @@
         <v>44543</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E176" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -18466,10 +18466,10 @@
         <v>44544</v>
       </c>
       <c r="C177" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -18480,10 +18480,10 @@
         <v>44545</v>
       </c>
       <c r="C178" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E178" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -18494,10 +18494,10 @@
         <v>44543</v>
       </c>
       <c r="C179" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E179" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -18508,10 +18508,10 @@
         <v>44550</v>
       </c>
       <c r="C180" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E180" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
